--- a/mapPool.xlsx
+++ b/mapPool.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>№</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Length</t>
   </si>
   <si>
+    <t>BPM</t>
+  </si>
+  <si>
     <t>Star rating</t>
   </si>
   <si>
@@ -35,16 +38,380 @@
   </si>
   <si>
     <t>Nomod</t>
+  </si>
+  <si>
+    <t>Sota Fujimori - polygon [Hyper]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1251807</t>
+  </si>
+  <si>
+    <t>1:54</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>4.20*</t>
+  </si>
+  <si>
+    <t>AR:8.5 CS:4.0 OD:6.0 HP:6.0</t>
+  </si>
+  <si>
+    <t>Memme - Avalanche [toybot's Another]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/765283</t>
+  </si>
+  <si>
+    <t>1:58</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>4.84*</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:8.0 HP:7.0</t>
+  </si>
+  <si>
+    <t>YUC'e - Future Candy [Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1521481</t>
+  </si>
+  <si>
+    <t>4:30</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:8.0 HP:5.0</t>
+  </si>
+  <si>
+    <t>uma vs. Morimori Atsushi - Re:End of a Dream [VINXIS' Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1265438</t>
+  </si>
+  <si>
+    <t>2:11</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>4.86*</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:7.0 HP:6.0</t>
+  </si>
+  <si>
+    <t>SOUTAISEIRIRON - Shikaku Kakumei [Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/338533</t>
+  </si>
+  <si>
+    <t>3:37</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:7.0 HP:7.0</t>
+  </si>
+  <si>
+    <t>Caravan Palace - Lone Digger [Hayu's Hyper]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/973607</t>
+  </si>
+  <si>
+    <t>3:34</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>4.92*</t>
+  </si>
+  <si>
+    <t>AR:9.5 CS:4.0 OD:8.0 HP:6.0</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>ITO KASHITARO - START [117's Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/987096</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>4.82*</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:7.5 HP:6.0</t>
+  </si>
+  <si>
+    <t>O2i3 - A Flat Minor [Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1234097</t>
+  </si>
+  <si>
+    <t>2:50</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:6.5 HP:6.0</t>
+  </si>
+  <si>
+    <t>Nekomata Master - Sayonara Heaven [Another]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1264401</t>
+  </si>
+  <si>
+    <t>2:00</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:5.0 OD:7.0 HP:6.0</t>
+  </si>
+  <si>
+    <t>Hardrock</t>
+  </si>
+  <si>
+    <t>Mai Kuraki - Time After Time~Hana Mau Machi de~ Theatre Ver. [Hard]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/81974</t>
+  </si>
+  <si>
+    <t>2:54</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>4.53*</t>
+  </si>
+  <si>
+    <t>AR:9.8 CS:7.0 OD:8.5 HP:9.0</t>
+  </si>
+  <si>
+    <t>USAO - Night sky [Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/916627</t>
+  </si>
+  <si>
+    <t>1:51</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>4.76*</t>
+  </si>
+  <si>
+    <t>AR:10.0 CS:6.0 OD:10.0 HP:9.0</t>
+  </si>
+  <si>
+    <t>Nekomata Master - Following Flow [Another]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1087689</t>
+  </si>
+  <si>
+    <t>4.81*</t>
+  </si>
+  <si>
+    <t>DoubleTime</t>
+  </si>
+  <si>
+    <t>Seiryu - Ultramarine [Standard]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/281388</t>
+  </si>
+  <si>
+    <t>3:33</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>4.34*</t>
+  </si>
+  <si>
+    <t>AR:8.4 CS:4.0 OD:7.8 HP:4.0</t>
+  </si>
+  <si>
+    <t>Sangatsu no Phantasia - Ao ni Minasoko [Hard]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1946259</t>
+  </si>
+  <si>
+    <t>3:39</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>4.73*</t>
+  </si>
+  <si>
+    <t>AR:9.7 CS:4.0 OD:8.5 HP:5.0</t>
+  </si>
+  <si>
+    <t>Kyary Pamyu Pamyu - Ninjya Re Bang Bang [Hard]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/230175</t>
+  </si>
+  <si>
+    <t>3:13</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:9.2 HP:7.0</t>
+  </si>
+  <si>
+    <t>FELT - Roll Ground [Hard]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/727969</t>
+  </si>
+  <si>
+    <t>3:41</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:8.5 HP:6.0</t>
+  </si>
+  <si>
+    <t>Freemod</t>
+  </si>
+  <si>
+    <t>Aizawa - Flutter Girl [Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/61124</t>
+  </si>
+  <si>
+    <t>2:52</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>4.21*</t>
+  </si>
+  <si>
+    <t>AR:8.0 CS:4.0 OD:8.0 HP:6.0</t>
+  </si>
+  <si>
+    <t>LiSA - Catch the Moment [Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1213767</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>4.47*</t>
+  </si>
+  <si>
+    <t>Megpoid GUMI - Dokugaron -code:altered- [Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/135821</t>
+  </si>
+  <si>
+    <t>3:28</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>4.49*</t>
+  </si>
+  <si>
+    <t>Dollscythe - Flashes (Extended) [yf's PP Insane]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/1090607</t>
+  </si>
+  <si>
+    <t>3:51</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>4.51*</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:6.5 HP:5.0</t>
+  </si>
+  <si>
+    <t>Tiebreaker</t>
+  </si>
+  <si>
+    <t>Sakamoto Maaya - Okaerinasai (tomatomerde Remix) [Collab]</t>
+  </si>
+  <si>
+    <t>https://osu.ppy.sh/b/431147</t>
+  </si>
+  <si>
+    <t>5:53</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>4.85*</t>
+  </si>
+  <si>
+    <t>AR:9.0 CS:4.0 OD:8.0 HP:6.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -81,18 +448,825 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="1"/>
+    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1251807.jpg" id="2" name="1251807.jpg" title="1251807.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="765283.jpg" id="3" name="765283.jpg" title="765283.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1521481.jpg" id="4" name="1521481.jpg" title="1521481.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1265438.jpg" id="5" name="1265438.jpg" title="1265438.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="338533.jpg" id="6" name="338533.jpg" title="338533.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="973607.jpg" id="7" name="973607.jpg" title="973607.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="987096.jpg" id="8" name="987096.jpg" title="987096.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1234097.jpg" id="9" name="1234097.jpg" title="1234097.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1264401.jpg" id="10" name="1264401.jpg" title="1264401.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="81974.jpg" id="11" name="81974.jpg" title="81974.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="916627.jpg" id="12" name="916627.jpg" title="916627.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1087689.jpg" id="13" name="1087689.jpg" title="1087689.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="281388.jpg" id="14" name="281388.jpg" title="281388.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1946259.jpg" id="15" name="1946259.jpg" title="1946259.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="230175.jpg" id="16" name="230175.jpg" title="230175.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="727969.jpg" id="17" name="727969.jpg" title="727969.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="61124.jpg" id="18" name="61124.jpg" title="61124.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1213767.jpg" id="19" name="1213767.jpg" title="1213767.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="135821.jpg" id="20" name="135821.jpg" title="135821.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="1090607.jpg" id="21" name="1090607.jpg" title="1090607.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="431147.jpg" id="22" name="431147.jpg" title="431147.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8572500" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -104,10 +1278,11 @@
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customHeight="1">
+    <row r="1" spans="1:8" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -129,13 +1304,569 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:1" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customHeight="1">
+      <c r="A15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customHeight="1">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customHeight="1">
+      <c r="A19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customHeight="1">
+      <c r="A20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" customHeight="1">
+      <c r="A21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customHeight="1">
+      <c r="A23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customHeight="1">
+      <c r="A24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customHeight="1">
+      <c r="A25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customHeight="1">
+      <c r="A26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" customHeight="1">
+      <c r="A28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://osu.ppy.sh/b/1251807" address="https://osu.ppy.sh/b/1251807" tooltip="https://osu.ppy.sh/b/1251807"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://osu.ppy.sh/b/765283" address="https://osu.ppy.sh/b/765283" tooltip="https://osu.ppy.sh/b/765283"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://osu.ppy.sh/b/1521481" address="https://osu.ppy.sh/b/1521481" tooltip="https://osu.ppy.sh/b/1521481"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://osu.ppy.sh/b/1265438" address="https://osu.ppy.sh/b/1265438" tooltip="https://osu.ppy.sh/b/1265438"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://osu.ppy.sh/b/338533" address="https://osu.ppy.sh/b/338533" tooltip="https://osu.ppy.sh/b/338533"/>
+    <hyperlink ref="D8" r:id="rId6" display="https://osu.ppy.sh/b/973607" address="https://osu.ppy.sh/b/973607" tooltip="https://osu.ppy.sh/b/973607"/>
+    <hyperlink ref="D10" r:id="rId7" display="https://osu.ppy.sh/b/987096" address="https://osu.ppy.sh/b/987096" tooltip="https://osu.ppy.sh/b/987096"/>
+    <hyperlink ref="D11" r:id="rId8" display="https://osu.ppy.sh/b/1234097" address="https://osu.ppy.sh/b/1234097" tooltip="https://osu.ppy.sh/b/1234097"/>
+    <hyperlink ref="D12" r:id="rId9" display="https://osu.ppy.sh/b/1264401" address="https://osu.ppy.sh/b/1264401" tooltip="https://osu.ppy.sh/b/1264401"/>
+    <hyperlink ref="D14" r:id="rId10" display="https://osu.ppy.sh/b/81974" address="https://osu.ppy.sh/b/81974" tooltip="https://osu.ppy.sh/b/81974"/>
+    <hyperlink ref="D15" r:id="rId11" display="https://osu.ppy.sh/b/916627" address="https://osu.ppy.sh/b/916627" tooltip="https://osu.ppy.sh/b/916627"/>
+    <hyperlink ref="D16" r:id="rId12" display="https://osu.ppy.sh/b/1087689" address="https://osu.ppy.sh/b/1087689" tooltip="https://osu.ppy.sh/b/1087689"/>
+    <hyperlink ref="D18" r:id="rId13" display="https://osu.ppy.sh/b/281388" address="https://osu.ppy.sh/b/281388" tooltip="https://osu.ppy.sh/b/281388"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://osu.ppy.sh/b/1946259" address="https://osu.ppy.sh/b/1946259" tooltip="https://osu.ppy.sh/b/1946259"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://osu.ppy.sh/b/230175" address="https://osu.ppy.sh/b/230175" tooltip="https://osu.ppy.sh/b/230175"/>
+    <hyperlink ref="D21" r:id="rId16" display="https://osu.ppy.sh/b/727969" address="https://osu.ppy.sh/b/727969" tooltip="https://osu.ppy.sh/b/727969"/>
+    <hyperlink ref="D23" r:id="rId17" display="https://osu.ppy.sh/b/61124" address="https://osu.ppy.sh/b/61124" tooltip="https://osu.ppy.sh/b/61124"/>
+    <hyperlink ref="D24" r:id="rId18" display="https://osu.ppy.sh/b/1213767" address="https://osu.ppy.sh/b/1213767" tooltip="https://osu.ppy.sh/b/1213767"/>
+    <hyperlink ref="D25" r:id="rId19" display="https://osu.ppy.sh/b/135821" address="https://osu.ppy.sh/b/135821" tooltip="https://osu.ppy.sh/b/135821"/>
+    <hyperlink ref="D26" r:id="rId20" display="https://osu.ppy.sh/b/1090607" address="https://osu.ppy.sh/b/1090607" tooltip="https://osu.ppy.sh/b/1090607"/>
+    <hyperlink ref="D28" r:id="rId21" display="https://osu.ppy.sh/b/431147" address="https://osu.ppy.sh/b/431147" tooltip="https://osu.ppy.sh/b/431147"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/mapPool.xlsx
+++ b/mapPool.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <bookViews>
-    <workbookView/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Map pool" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Map pool" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
   <si>
     <t>№</t>
   </si>
@@ -25,13 +25,13 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Length</t>
+    <t>LEN</t>
   </si>
   <si>
     <t>BPM</t>
   </si>
   <si>
-    <t>Star rating</t>
+    <t>SR</t>
   </si>
   <si>
     <t>Stats</t>
@@ -250,10 +250,10 @@
     <t>https://osu.ppy.sh/b/281388</t>
   </si>
   <si>
-    <t>3:33</t>
-  </si>
-  <si>
-    <t>191</t>
+    <t>2:22</t>
+  </si>
+  <si>
+    <t>287</t>
   </si>
   <si>
     <t>4.34*</t>
@@ -268,10 +268,10 @@
     <t>https://osu.ppy.sh/b/1946259</t>
   </si>
   <si>
-    <t>3:39</t>
-  </si>
-  <si>
-    <t>220</t>
+    <t>2:26</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t>4.73*</t>
@@ -286,10 +286,10 @@
     <t>https://osu.ppy.sh/b/230175</t>
   </si>
   <si>
-    <t>3:13</t>
-  </si>
-  <si>
-    <t>130</t>
+    <t>2:90</t>
+  </si>
+  <si>
+    <t>195</t>
   </si>
   <si>
     <t>AR:9.0 CS:4.0 OD:9.2 HP:7.0</t>
@@ -301,10 +301,10 @@
     <t>https://osu.ppy.sh/b/727969</t>
   </si>
   <si>
-    <t>3:41</t>
-  </si>
-  <si>
-    <t>164</t>
+    <t>2:28</t>
+  </si>
+  <si>
+    <t>246</t>
   </si>
   <si>
     <t>AR:9.0 CS:4.0 OD:8.5 HP:6.0</t>
@@ -400,20 +400,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+      <b/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,36 +444,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="4">
-    <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="1"/>
-    <xf applyFont="1" fontId="1" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -478,13 +505,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1251807.jpg" id="2" name="1251807.jpg" title="1251807.jpg"/>
+        <xdr:cNvPr id="1" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -492,7 +525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,13 +549,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="765283.jpg" id="3" name="765283.jpg" title="765283.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -530,7 +569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -554,13 +593,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1521481.jpg" id="4" name="1521481.jpg" title="1521481.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -568,7 +613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,13 +637,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1265438.jpg" id="5" name="1265438.jpg" title="1265438.jpg"/>
+        <xdr:cNvPr id="4" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -606,7 +657,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,13 +681,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="338533.jpg" id="6" name="338533.jpg" title="338533.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -644,7 +701,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,13 +725,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="973607.jpg" id="7" name="973607.jpg" title="973607.jpg"/>
+        <xdr:cNvPr id="6" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -682,7 +745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -706,13 +769,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="987096.jpg" id="8" name="987096.jpg" title="987096.jpg"/>
+        <xdr:cNvPr id="7" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -720,7 +789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,13 +813,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1234097.jpg" id="9" name="1234097.jpg" title="1234097.jpg"/>
+        <xdr:cNvPr id="8" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -758,7 +833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,13 +857,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1264401.jpg" id="10" name="1264401.jpg" title="1264401.jpg"/>
+        <xdr:cNvPr id="9" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -796,7 +877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,13 +901,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="81974.jpg" id="11" name="81974.jpg" title="81974.jpg"/>
+        <xdr:cNvPr id="10" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -834,7 +921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,13 +945,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="916627.jpg" id="12" name="916627.jpg" title="916627.jpg"/>
+        <xdr:cNvPr id="11" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -872,7 +965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,13 +989,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1087689.jpg" id="13" name="1087689.jpg" title="1087689.jpg"/>
+        <xdr:cNvPr id="12" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -910,7 +1009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -934,13 +1033,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="281388.jpg" id="14" name="281388.jpg" title="281388.jpg"/>
+        <xdr:cNvPr id="13" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -948,7 +1053,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -972,13 +1077,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1946259.jpg" id="15" name="1946259.jpg" title="1946259.jpg"/>
+        <xdr:cNvPr id="14" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -986,7 +1097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1010,13 +1121,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="230175.jpg" id="16" name="230175.jpg" title="230175.jpg"/>
+        <xdr:cNvPr id="15" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1024,7 +1141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,13 +1165,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="727969.jpg" id="17" name="727969.jpg" title="727969.jpg"/>
+        <xdr:cNvPr id="16" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1062,7 +1185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1086,13 +1209,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="61124.jpg" id="18" name="61124.jpg" title="61124.jpg"/>
+        <xdr:cNvPr id="17" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1100,7 +1229,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1124,13 +1253,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1213767.jpg" id="19" name="1213767.jpg" title="1213767.jpg"/>
+        <xdr:cNvPr id="18" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1138,7 +1273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1162,13 +1297,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="135821.jpg" id="20" name="135821.jpg" title="135821.jpg"/>
+        <xdr:cNvPr id="19" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1176,7 +1317,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,13 +1341,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="1090607.jpg" id="21" name="1090607.jpg" title="1090607.jpg"/>
+        <xdr:cNvPr id="20" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1214,7 +1361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1238,13 +1385,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="431147.jpg" id="22" name="431147.jpg" title="431147.jpg"/>
+        <xdr:cNvPr id="21" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1252,7 +1405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8572500" cy="2381250"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1264,25 +1417,340 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="35" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="35" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
+    <col min="3" max="3" width="90" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="5" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customHeight="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,565 +1776,593 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" customHeight="1">
-      <c r="A3" s="1" t="n">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customHeight="1">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customHeight="1">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customHeight="1">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customHeight="1">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customHeight="1">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:1" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" customHeight="1">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customHeight="1">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customHeight="1">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:1" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" customHeight="1">
-      <c r="A14" s="1" t="n">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>1</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customHeight="1">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:8" customHeight="1">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:1" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" customHeight="1">
-      <c r="A18" s="1" t="n">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customHeight="1">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customHeight="1">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customHeight="1">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:1" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customHeight="1">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customHeight="1">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customHeight="1">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:1" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" customHeight="1">
-      <c r="A28" s="1" t="n">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="4" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://osu.ppy.sh/b/1251807" address="https://osu.ppy.sh/b/1251807" tooltip="https://osu.ppy.sh/b/1251807"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://osu.ppy.sh/b/765283" address="https://osu.ppy.sh/b/765283" tooltip="https://osu.ppy.sh/b/765283"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://osu.ppy.sh/b/1521481" address="https://osu.ppy.sh/b/1521481" tooltip="https://osu.ppy.sh/b/1521481"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://osu.ppy.sh/b/1265438" address="https://osu.ppy.sh/b/1265438" tooltip="https://osu.ppy.sh/b/1265438"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://osu.ppy.sh/b/338533" address="https://osu.ppy.sh/b/338533" tooltip="https://osu.ppy.sh/b/338533"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://osu.ppy.sh/b/973607" address="https://osu.ppy.sh/b/973607" tooltip="https://osu.ppy.sh/b/973607"/>
-    <hyperlink ref="D10" r:id="rId7" display="https://osu.ppy.sh/b/987096" address="https://osu.ppy.sh/b/987096" tooltip="https://osu.ppy.sh/b/987096"/>
-    <hyperlink ref="D11" r:id="rId8" display="https://osu.ppy.sh/b/1234097" address="https://osu.ppy.sh/b/1234097" tooltip="https://osu.ppy.sh/b/1234097"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://osu.ppy.sh/b/1264401" address="https://osu.ppy.sh/b/1264401" tooltip="https://osu.ppy.sh/b/1264401"/>
-    <hyperlink ref="D14" r:id="rId10" display="https://osu.ppy.sh/b/81974" address="https://osu.ppy.sh/b/81974" tooltip="https://osu.ppy.sh/b/81974"/>
-    <hyperlink ref="D15" r:id="rId11" display="https://osu.ppy.sh/b/916627" address="https://osu.ppy.sh/b/916627" tooltip="https://osu.ppy.sh/b/916627"/>
-    <hyperlink ref="D16" r:id="rId12" display="https://osu.ppy.sh/b/1087689" address="https://osu.ppy.sh/b/1087689" tooltip="https://osu.ppy.sh/b/1087689"/>
-    <hyperlink ref="D18" r:id="rId13" display="https://osu.ppy.sh/b/281388" address="https://osu.ppy.sh/b/281388" tooltip="https://osu.ppy.sh/b/281388"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://osu.ppy.sh/b/1946259" address="https://osu.ppy.sh/b/1946259" tooltip="https://osu.ppy.sh/b/1946259"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://osu.ppy.sh/b/230175" address="https://osu.ppy.sh/b/230175" tooltip="https://osu.ppy.sh/b/230175"/>
-    <hyperlink ref="D21" r:id="rId16" display="https://osu.ppy.sh/b/727969" address="https://osu.ppy.sh/b/727969" tooltip="https://osu.ppy.sh/b/727969"/>
-    <hyperlink ref="D23" r:id="rId17" display="https://osu.ppy.sh/b/61124" address="https://osu.ppy.sh/b/61124" tooltip="https://osu.ppy.sh/b/61124"/>
-    <hyperlink ref="D24" r:id="rId18" display="https://osu.ppy.sh/b/1213767" address="https://osu.ppy.sh/b/1213767" tooltip="https://osu.ppy.sh/b/1213767"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://osu.ppy.sh/b/135821" address="https://osu.ppy.sh/b/135821" tooltip="https://osu.ppy.sh/b/135821"/>
-    <hyperlink ref="D26" r:id="rId20" display="https://osu.ppy.sh/b/1090607" address="https://osu.ppy.sh/b/1090607" tooltip="https://osu.ppy.sh/b/1090607"/>
-    <hyperlink ref="D28" r:id="rId21" display="https://osu.ppy.sh/b/431147" address="https://osu.ppy.sh/b/431147" tooltip="https://osu.ppy.sh/b/431147"/>
-  </hyperlinks>
+  <mergeCells count="6">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A27:H27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mapPool.xlsx
+++ b/mapPool.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>№</t>
   </si>
@@ -19,389 +19,434 @@
     <t>Background</t>
   </si>
   <si>
+    <t>Mode</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Link</t>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>BPM</t>
   </si>
   <si>
     <t>LEN</t>
   </si>
   <si>
-    <t>BPM</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
     <t>Stats</t>
   </si>
   <si>
-    <t>Nomod</t>
-  </si>
-  <si>
-    <t>Sota Fujimori - polygon [Hyper]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1251807</t>
-  </si>
-  <si>
-    <t>1:54</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>4.20*</t>
-  </si>
-  <si>
-    <t>AR:8.5 CS:4.0 OD:6.0 HP:6.0</t>
-  </si>
-  <si>
-    <t>Memme - Avalanche [toybot's Another]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/765283</t>
-  </si>
-  <si>
-    <t>1:58</t>
+    <t>Mapper</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>mapsetId</t>
+  </si>
+  <si>
+    <t>NM1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/756508" ; "CHiCO with HoneyWorks - Pride Kakumei [Darkness]")</t>
+  </si>
+  <si>
+    <t>5.24*</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>3:50</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 8.9 | 7.0</t>
+  </si>
+  <si>
+    <t>monstrata</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/484890" ; "Seiryu - Critical Crystal [Yuki's Another]")</t>
+  </si>
+  <si>
+    <t>5.12*</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>1:52</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 7.5 | 6.0</t>
+  </si>
+  <si>
+    <t>Priti</t>
+  </si>
+  <si>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1853547" ; "-45 - Shoujo-tachi no Majogari [Accusation]")</t>
+  </si>
+  <si>
+    <t>5.14*</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>4:25</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Dada</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/105003" ; "Hatsune Miku - Hiatus [Insane]")</t>
+  </si>
+  <si>
+    <t>5.23*</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>3:40</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 6.0 | 6.0</t>
+  </si>
+  <si>
+    <t>wcx19911123</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/99094" ; "Megpoid GUMI - Carnival [Carnival0108]")</t>
+  </si>
+  <si>
+    <t>5.03*</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>3:36</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/431939" ; "An - Necro Fantasia-An remix- [Lunatic]")</t>
+  </si>
+  <si>
+    <t>5.19*</t>
+  </si>
+  <si>
+    <t>3:14</t>
+  </si>
+  <si>
+    <t>5.0 | 9.2 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>captin1</t>
+  </si>
+  <si>
+    <t>HD1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/116760" ; "Kozato - 45nen no Yukizakura [Insane]")</t>
+  </si>
+  <si>
+    <t>4.51*</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>2:16</t>
+  </si>
+  <si>
+    <t>4.0 | 8.0 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Apricot</t>
+  </si>
+  <si>
+    <t>HD2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1393237" ; "Wake up, May'n! - One In A Billion [Meyrink's Insane]")</t>
+  </si>
+  <si>
+    <t>5.06*</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>4:60</t>
+  </si>
+  <si>
+    <t>Rizia</t>
+  </si>
+  <si>
+    <t>HD3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/808479" ; "Camellia - overcomplexification [Yauxo's Another]")</t>
+  </si>
+  <si>
+    <t>5.11*</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>5.0 | 9.1 | 7.4 | 6.0</t>
+  </si>
+  <si>
+    <t>Squigly</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1017374" ; "yuikonnu - Kakushigoto [Hathz's Insane]")</t>
+  </si>
+  <si>
+    <t>5.21*</t>
+  </si>
+  <si>
+    <t>3:45</t>
+  </si>
+  <si>
+    <t>6.0 | 10.0 | 10.0 | 9.0</t>
+  </si>
+  <si>
+    <t>AtHeoN</t>
+  </si>
+  <si>
+    <t>HR2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/43167" ; "Loos - Koi Yomi Zakura [Another]")</t>
+  </si>
+  <si>
+    <t>5.01*</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>2:13</t>
+  </si>
+  <si>
+    <t>7.0 | 9.8 | 9.9 | 10.0</t>
+  </si>
+  <si>
+    <t>Alace</t>
+  </si>
+  <si>
+    <t>HR3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/246276" ; "USAO - ZED [Nyquill's Another]")</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>6.0 | 10.0 | 9.9 | 10.0</t>
+  </si>
+  <si>
+    <t>Mr Color</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/730592" ; "M.Zakky - Tasogare ni Shitataru Chi wa Mitsu no Aji [Dusk]")</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>2:20</t>
+  </si>
+  <si>
+    <t>5.0 | 9.9 | 9.5 | 7.0</t>
+  </si>
+  <si>
+    <t>Okoratu</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/135609" ; "Celldweller - The Best It's Gonna Get [Perfect-RJ]")</t>
+  </si>
+  <si>
+    <t>5.16*</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>4.0 | 9.7 | 9.2 | 7.0</t>
+  </si>
+  <si>
+    <t>Vass_Bass</t>
+  </si>
+  <si>
+    <t>DT3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/2058261" ; "School Food Punishment - deviswitch [Hard]")</t>
+  </si>
+  <si>
+    <t>5.13*</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>2:26</t>
+  </si>
+  <si>
+    <t>4.0 | 9.7 | 9.2 | 5.0</t>
+  </si>
+  <si>
+    <t>-Tochi</t>
+  </si>
+  <si>
+    <t>DT4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1734140" ; "Ichigaya Arisa (CV: Itou Ayasa) - Su-Suki Nanka Janai! [Hard]")</t>
+  </si>
+  <si>
+    <t>4.93*</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>2:34</t>
+  </si>
+  <si>
+    <t>4.0 | 9.4 | 8.5 | 5.0</t>
+  </si>
+  <si>
+    <t>Gaia</t>
+  </si>
+  <si>
+    <t>FM1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1068523" ; "BTS - FIRE [apple's Insane]")</t>
+  </si>
+  <si>
+    <t>4.79*</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3:22</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 7.4 | 6.0</t>
+  </si>
+  <si>
+    <t>sukiNathan</t>
+  </si>
+  <si>
+    <t>FM2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1403276" ; "Yousei Teikoku - Hades: The rise [Insane]")</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>4:21</t>
+  </si>
+  <si>
+    <t>Delis</t>
+  </si>
+  <si>
+    <t>FM3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/955690" ; "USAO - Showdown [Atsuro's Insane]")</t>
+  </si>
+  <si>
+    <t>5.00*</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>1:59</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>FM4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1454214" ; "ONE OK ROCK - Memories [Lasse's Insane]")</t>
   </si>
   <si>
     <t>175</t>
   </si>
   <si>
-    <t>4.84*</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:8.0 HP:7.0</t>
-  </si>
-  <si>
-    <t>YUC'e - Future Candy [Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1521481</t>
-  </si>
-  <si>
-    <t>4:30</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:8.0 HP:5.0</t>
-  </si>
-  <si>
-    <t>uma vs. Morimori Atsushi - Re:End of a Dream [VINXIS' Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1265438</t>
-  </si>
-  <si>
-    <t>2:11</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>4.86*</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:7.0 HP:6.0</t>
-  </si>
-  <si>
-    <t>SOUTAISEIRIRON - Shikaku Kakumei [Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/338533</t>
-  </si>
-  <si>
-    <t>3:37</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:7.0 HP:7.0</t>
-  </si>
-  <si>
-    <t>Caravan Palace - Lone Digger [Hayu's Hyper]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/973607</t>
-  </si>
-  <si>
-    <t>3:34</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>4.92*</t>
-  </si>
-  <si>
-    <t>AR:9.5 CS:4.0 OD:8.0 HP:6.0</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>ITO KASHITARO - START [117's Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/987096</t>
-  </si>
-  <si>
-    <t>3:17</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>4.82*</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:7.5 HP:6.0</t>
-  </si>
-  <si>
-    <t>O2i3 - A Flat Minor [Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1234097</t>
-  </si>
-  <si>
-    <t>2:50</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:6.5 HP:6.0</t>
-  </si>
-  <si>
-    <t>Nekomata Master - Sayonara Heaven [Another]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1264401</t>
-  </si>
-  <si>
-    <t>2:00</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:5.0 OD:7.0 HP:6.0</t>
-  </si>
-  <si>
-    <t>Hardrock</t>
-  </si>
-  <si>
-    <t>Mai Kuraki - Time After Time~Hana Mau Machi de~ Theatre Ver. [Hard]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/81974</t>
-  </si>
-  <si>
-    <t>2:54</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>4.53*</t>
-  </si>
-  <si>
-    <t>AR:9.8 CS:7.0 OD:8.5 HP:9.0</t>
-  </si>
-  <si>
-    <t>USAO - Night sky [Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/916627</t>
-  </si>
-  <si>
-    <t>1:51</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>4.76*</t>
-  </si>
-  <si>
-    <t>AR:10.0 CS:6.0 OD:10.0 HP:9.0</t>
-  </si>
-  <si>
-    <t>Nekomata Master - Following Flow [Another]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1087689</t>
-  </si>
-  <si>
-    <t>4.81*</t>
-  </si>
-  <si>
-    <t>DoubleTime</t>
-  </si>
-  <si>
-    <t>Seiryu - Ultramarine [Standard]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/281388</t>
-  </si>
-  <si>
-    <t>2:22</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>4.34*</t>
-  </si>
-  <si>
-    <t>AR:8.4 CS:4.0 OD:7.8 HP:4.0</t>
-  </si>
-  <si>
-    <t>Sangatsu no Phantasia - Ao ni Minasoko [Hard]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1946259</t>
-  </si>
-  <si>
-    <t>2:26</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>4.73*</t>
-  </si>
-  <si>
-    <t>AR:9.7 CS:4.0 OD:8.5 HP:5.0</t>
-  </si>
-  <si>
-    <t>Kyary Pamyu Pamyu - Ninjya Re Bang Bang [Hard]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/230175</t>
-  </si>
-  <si>
-    <t>2:90</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:9.2 HP:7.0</t>
-  </si>
-  <si>
-    <t>FELT - Roll Ground [Hard]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/727969</t>
-  </si>
-  <si>
-    <t>2:28</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:8.5 HP:6.0</t>
-  </si>
-  <si>
-    <t>Freemod</t>
-  </si>
-  <si>
-    <t>Aizawa - Flutter Girl [Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/61124</t>
-  </si>
-  <si>
-    <t>2:52</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>4.21*</t>
-  </si>
-  <si>
-    <t>AR:8.0 CS:4.0 OD:8.0 HP:6.0</t>
-  </si>
-  <si>
-    <t>LiSA - Catch the Moment [Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1213767</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>4.47*</t>
-  </si>
-  <si>
-    <t>Megpoid GUMI - Dokugaron -code:altered- [Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/135821</t>
-  </si>
-  <si>
-    <t>3:28</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>4.49*</t>
-  </si>
-  <si>
-    <t>Dollscythe - Flashes (Extended) [yf's PP Insane]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/1090607</t>
-  </si>
-  <si>
-    <t>3:51</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>4.51*</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:6.5 HP:5.0</t>
-  </si>
-  <si>
-    <t>Tiebreaker</t>
-  </si>
-  <si>
-    <t>Sakamoto Maaya - Okaerinasai (tomatomerde Remix) [Collab]</t>
-  </si>
-  <si>
-    <t>https://osu.ppy.sh/b/431147</t>
-  </si>
-  <si>
-    <t>5:53</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>4.85*</t>
-  </si>
-  <si>
-    <t>AR:9.0 CS:4.0 OD:8.0 HP:6.0</t>
+    <t>3:15</t>
+  </si>
+  <si>
+    <t>Komore</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1869428" ; "wavforme x Annabel - own phrases [Narcissu's Insane]")</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>5:16</t>
+  </si>
+  <si>
+    <t>4.0 | 9.2 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Mordred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -412,10 +457,6 @@
     <font>
       <b/>
       <sz val="14"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
     </font>
     <font>
       <b/>
@@ -454,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,13 +503,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,13 +532,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -538,13 +576,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -582,13 +620,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -626,13 +664,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -670,13 +708,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -714,13 +752,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -758,13 +796,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -802,13 +840,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -846,13 +884,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -890,13 +928,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -934,13 +972,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -978,13 +1016,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1022,13 +1060,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1066,13 +1104,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1110,13 +1148,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1154,13 +1192,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1198,13 +1236,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1242,13 +1280,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1286,13 +1324,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1330,13 +1368,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1374,13 +1412,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1739,18 +1777,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K22"/>
   <sheetFormatPr defaultRowHeight="35" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="90" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="90" customWidth="1"/>
     <col min="5" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1775,592 +1813,710 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3">
+        <v>756508</v>
+      </c>
+      <c r="K2" s="3">
+        <v>342242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3">
+        <v>484890</v>
+      </c>
+      <c r="K3" s="3">
+        <v>199535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1853547</v>
+      </c>
+      <c r="K4" s="3">
+        <v>886627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3">
+        <v>105003</v>
+      </c>
+      <c r="K5" s="3">
+        <v>32046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="3">
+        <v>99094</v>
+      </c>
+      <c r="K6" s="3">
+        <v>28561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3">
+        <v>431939</v>
+      </c>
+      <c r="K7" s="3">
+        <v>179691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="3">
+        <v>116760</v>
+      </c>
+      <c r="K8" s="3">
+        <v>36097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1393237</v>
+      </c>
+      <c r="K9" s="3">
+        <v>647652</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="3">
+        <v>808479</v>
+      </c>
+      <c r="K10" s="3">
+        <v>351877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1017374</v>
+      </c>
+      <c r="K11" s="3">
+        <v>436177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="3">
+        <v>43167</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="3">
+        <v>246276</v>
+      </c>
+      <c r="K13" s="3">
+        <v>60115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="3">
+        <v>730592</v>
+      </c>
+      <c r="K14" s="3">
+        <v>329538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="3">
+        <v>135609</v>
+      </c>
+      <c r="K15" s="3">
+        <v>36529</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2058261</v>
+      </c>
+      <c r="K16" s="3">
+        <v>903719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1734140</v>
+      </c>
+      <c r="K17" s="3">
+        <v>796450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1068523</v>
+      </c>
+      <c r="K18" s="3">
+        <v>479385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1403276</v>
+      </c>
+      <c r="K19" s="3">
+        <v>662526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="3">
+        <v>955690</v>
+      </c>
+      <c r="K20" s="3">
+        <v>438839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1454214</v>
+      </c>
+      <c r="K21" s="3">
+        <v>684590</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>127</v>
+      <c r="F22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1869428</v>
+      </c>
+      <c r="K22" s="3">
+        <v>894026</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A27:H27"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <drawing r:id="rId1"/>

--- a/mapPool.xlsx
+++ b/mapPool.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="174">
   <si>
     <t>№</t>
   </si>
@@ -49,10 +49,10 @@
     <t>NM1</t>
   </si>
   <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/756508" ; "CHiCO with HoneyWorks - Pride Kakumei [Darkness]")</t>
-  </si>
-  <si>
-    <t>5.24*</t>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/391228" ; "Sagara Kokoro - Hoshizora no Ima [Extra]")</t>
+  </si>
+  <si>
+    <t>5.60*</t>
   </si>
   <si>
     <t>185</t>
@@ -61,151 +61,448 @@
     <t>3:50</t>
   </si>
   <si>
-    <t>4.0 | 9.0 | 8.9 | 7.0</t>
-  </si>
-  <si>
-    <t>monstrata</t>
+    <t>4.0 | 9.0 | 8.0 | 7.0</t>
+  </si>
+  <si>
+    <t>Asphyxia</t>
   </si>
   <si>
     <t>NM2</t>
   </si>
   <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/484890" ; "Seiryu - Critical Crystal [Yuki's Another]")</t>
-  </si>
-  <si>
-    <t>5.12*</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>1:52</t>
-  </si>
-  <si>
-    <t>4.0 | 9.0 | 7.5 | 6.0</t>
-  </si>
-  <si>
-    <t>Priti</t>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/657054" ; "Yuyoyuppe - AiAe [Expert]")</t>
+  </si>
+  <si>
+    <t>5.38*</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>3:35</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Fort</t>
   </si>
   <si>
     <t>NM3</t>
   </si>
   <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1853547" ; "-45 - Shoujo-tachi no Majogari [Accusation]")</t>
-  </si>
-  <si>
-    <t>5.14*</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>4:25</t>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1694183" ; "Gekidan Hitotose - Curtain Call!!!!! [NiNo's Insane]")</t>
+  </si>
+  <si>
+    <t>5.16*</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>3:36</t>
   </si>
   <si>
     <t>4.0 | 9.0 | 8.0 | 6.0</t>
   </si>
   <si>
-    <t>Dada</t>
+    <t>Hey lululu</t>
   </si>
   <si>
     <t>NM4</t>
   </si>
   <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/105003" ; "Hatsune Miku - Hiatus [Insane]")</t>
-  </si>
-  <si>
-    <t>5.23*</t>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1046977" ; "Camellia - kodama [Sonzi's Another]")</t>
+  </si>
+  <si>
+    <t>5.30*</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>3:47</t>
+  </si>
+  <si>
+    <t>ProfessionalBox</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/351993" ; "Himeringo - Yotsuya-san ni Yoroshiku [Insane]")</t>
+  </si>
+  <si>
+    <t>5.44*</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>2:52</t>
+  </si>
+  <si>
+    <t>RLC</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1917397" ; "Ziyoou-vachi - Kaen [Expert]")</t>
+  </si>
+  <si>
+    <t>5.40*</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>3:30</t>
+  </si>
+  <si>
+    <t>5.0 | 9.3 | 8.5 | 6.0</t>
+  </si>
+  <si>
+    <t>Seto Kousuke</t>
+  </si>
+  <si>
+    <t>HD1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1233941" ; "BTS - Not Today [Insane Collab]")</t>
+  </si>
+  <si>
+    <t>5.32*</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>3:48</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 8.0 | 7.0</t>
+  </si>
+  <si>
+    <t>DeRandom Otaku</t>
+  </si>
+  <si>
+    <t>HD2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/58701" ; "IOSYS - Midnight Lightning Bolt [Lunatic]")</t>
+  </si>
+  <si>
+    <t>4.93*</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>2:51</t>
+  </si>
+  <si>
+    <t>5.0 | 8.0 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>pieguy1372</t>
+  </si>
+  <si>
+    <t>HD3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/281069" ; "yuikonnu - Uchouten Vivace [Vivace!]")</t>
+  </si>
+  <si>
+    <t>5.02*</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>3:29</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 7.0 | 7.0</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>HD4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/733550" ; "Saosin - Collapse [Extra]")</t>
+  </si>
+  <si>
+    <t>5.47*</t>
+  </si>
+  <si>
+    <t>182.925</t>
+  </si>
+  <si>
+    <t>2:19</t>
+  </si>
+  <si>
+    <t>5.0 | 9.2 | 8.7 | 7.0</t>
+  </si>
+  <si>
+    <t>pishifat</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/788489" ; "Primary - Awake [Nyquill's Insane]")</t>
+  </si>
+  <si>
+    <t>5.49*</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
+    <t>3:37</t>
+  </si>
+  <si>
+    <t>6.0 | 10.0 | 10.0 | 10.0</t>
+  </si>
+  <si>
+    <t>xChippy</t>
+  </si>
+  <si>
+    <t>HR2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1782851" ; "Kajiura Yuki - Pugna cum maga [Insane]")</t>
+  </si>
+  <si>
+    <t>5.09*</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1:55</t>
+  </si>
+  <si>
+    <t>7.0 | 10.0 | 10.0 | 8.0</t>
+  </si>
+  <si>
+    <t>Trynna</t>
+  </si>
+  <si>
+    <t>HR3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1740463" ; "Ice vs. Morimori Atsushi - RE:UNION -Duo Blade Against- [Insane]")</t>
+  </si>
+  <si>
+    <t>5.19*</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>2:80</t>
+  </si>
+  <si>
+    <t>6.0 | 10.0 | 10.0 | 9.0</t>
+  </si>
+  <si>
+    <t>Princess Kisses</t>
+  </si>
+  <si>
+    <t>HR4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/715345" ; "Memme - Starving Days [Another]")</t>
+  </si>
+  <si>
+    <t>2:26</t>
+  </si>
+  <si>
+    <t>Gamu</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/706003" ; "Galileo Galilei - Aoi Shiori [Hanabi]")</t>
+  </si>
+  <si>
+    <t>5.52*</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>3:40</t>
   </si>
   <si>
+    <t>4.0 | 9.7 | 9.2 | 6.0</t>
+  </si>
+  <si>
+    <t>Umi</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/142989" ; "Megpoid GUMI - Nisemono no Uta [Hard]")</t>
+  </si>
+  <si>
+    <t>5.18*</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>2:90</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 7.8 | 6.0</t>
+  </si>
+  <si>
+    <t>raririn</t>
+  </si>
+  <si>
+    <t>DT3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/692711" ; "sana - Yakimochi no Kotae [Hyper]")</t>
+  </si>
+  <si>
+    <t>5.20*</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>2:21</t>
+  </si>
+  <si>
+    <t>4.0 | 9.7 | 8.5 | 5.0</t>
+  </si>
+  <si>
+    <t>Cherry Blossom</t>
+  </si>
+  <si>
+    <t>DT4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1015224" ; "Shoujo Fractal - Hatenaki Kaze no Kiseki sae [Hard]")</t>
+  </si>
+  <si>
+    <t>5.33*</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>2:42</t>
+  </si>
+  <si>
+    <t>4.0 | 9.7 | 8.8 | 5.0</t>
+  </si>
+  <si>
+    <t>-Mo-</t>
+  </si>
+  <si>
+    <t>DT5</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/765880" ; "Komine Lisa - Resuscitated Hope [Insane]")</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>3:12</t>
+  </si>
+  <si>
+    <t>4.0 | 9.9 | 9.2 | 7.0</t>
+  </si>
+  <si>
+    <t>Okorin</t>
+  </si>
+  <si>
+    <t>FM1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/587577" ; "Hanatan - If [wkyik's Insane]")</t>
+  </si>
+  <si>
+    <t>5.22*</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>4:43</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 7.0 | 7.0</t>
+  </si>
+  <si>
+    <t>Rakuen</t>
+  </si>
+  <si>
+    <t>FM2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/39205" ; "Cle - Broken Moon Remix [hvick225's Ex Stage]")</t>
+  </si>
+  <si>
+    <t>2:23</t>
+  </si>
+  <si>
+    <t>4.0 | 8.0 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Suck</t>
+  </si>
+  <si>
+    <t>FM3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/867282" ; "Primary - Inai Sekai [Kibbleru's Hyper]")</t>
+  </si>
+  <si>
+    <t>5.06*</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
     <t>4.0 | 9.0 | 6.0 | 6.0</t>
   </si>
   <si>
-    <t>wcx19911123</t>
-  </si>
-  <si>
-    <t>NM5</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/99094" ; "Megpoid GUMI - Carnival [Carnival0108]")</t>
-  </si>
-  <si>
-    <t>5.03*</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>3:36</t>
-  </si>
-  <si>
-    <t>NM6</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/431939" ; "An - Necro Fantasia-An remix- [Lunatic]")</t>
-  </si>
-  <si>
-    <t>5.19*</t>
-  </si>
-  <si>
-    <t>3:14</t>
-  </si>
-  <si>
-    <t>5.0 | 9.2 | 8.0 | 6.0</t>
-  </si>
-  <si>
-    <t>captin1</t>
-  </si>
-  <si>
-    <t>HD1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/116760" ; "Kozato - 45nen no Yukizakura [Insane]")</t>
-  </si>
-  <si>
-    <t>4.51*</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>2:16</t>
-  </si>
-  <si>
-    <t>4.0 | 8.0 | 8.0 | 6.0</t>
-  </si>
-  <si>
-    <t>Apricot</t>
-  </si>
-  <si>
-    <t>HD2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1393237" ; "Wake up, May'n! - One In A Billion [Meyrink's Insane]")</t>
-  </si>
-  <si>
-    <t>5.06*</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>4:60</t>
-  </si>
-  <si>
-    <t>Rizia</t>
-  </si>
-  <si>
-    <t>HD3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/808479" ; "Camellia - overcomplexification [Yauxo's Another]")</t>
+    <t>Shad0w1and</t>
+  </si>
+  <si>
+    <t>FM4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/2069551" ; "USAO - Extra Mode [Firika's Another]")</t>
+  </si>
+  <si>
+    <t>2:40</t>
+  </si>
+  <si>
+    <t>4.0 | 9.2 | 8.2 | 6.0</t>
+  </si>
+  <si>
+    <t>Otosaka-Yu</t>
+  </si>
+  <si>
+    <t>FM5</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/238938" ; "Nekomata Master+ - squall [Insane]")</t>
   </si>
   <si>
     <t>5.11*</t>
@@ -214,232 +511,28 @@
     <t>190</t>
   </si>
   <si>
-    <t>5.0 | 9.1 | 7.4 | 6.0</t>
-  </si>
-  <si>
-    <t>Squigly</t>
-  </si>
-  <si>
-    <t>HR1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1017374" ; "yuikonnu - Kakushigoto [Hathz's Insane]")</t>
-  </si>
-  <si>
-    <t>5.21*</t>
-  </si>
-  <si>
-    <t>3:45</t>
-  </si>
-  <si>
-    <t>6.0 | 10.0 | 10.0 | 9.0</t>
-  </si>
-  <si>
-    <t>AtHeoN</t>
-  </si>
-  <si>
-    <t>HR2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/43167" ; "Loos - Koi Yomi Zakura [Another]")</t>
-  </si>
-  <si>
-    <t>5.01*</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>2:13</t>
-  </si>
-  <si>
-    <t>7.0 | 9.8 | 9.9 | 10.0</t>
-  </si>
-  <si>
-    <t>Alace</t>
-  </si>
-  <si>
-    <t>HR3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/246276" ; "USAO - ZED [Nyquill's Another]")</t>
-  </si>
-  <si>
-    <t>2:10</t>
-  </si>
-  <si>
-    <t>6.0 | 10.0 | 9.9 | 10.0</t>
-  </si>
-  <si>
-    <t>Mr Color</t>
-  </si>
-  <si>
-    <t>DT1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/730592" ; "M.Zakky - Tasogare ni Shitataru Chi wa Mitsu no Aji [Dusk]")</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>2:20</t>
-  </si>
-  <si>
-    <t>5.0 | 9.9 | 9.5 | 7.0</t>
-  </si>
-  <si>
-    <t>Okoratu</t>
-  </si>
-  <si>
-    <t>DT2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/135609" ; "Celldweller - The Best It's Gonna Get [Perfect-RJ]")</t>
-  </si>
-  <si>
-    <t>5.16*</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>3:12</t>
-  </si>
-  <si>
-    <t>4.0 | 9.7 | 9.2 | 7.0</t>
-  </si>
-  <si>
-    <t>Vass_Bass</t>
-  </si>
-  <si>
-    <t>DT3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/2058261" ; "School Food Punishment - deviswitch [Hard]")</t>
-  </si>
-  <si>
-    <t>5.13*</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>2:26</t>
-  </si>
-  <si>
-    <t>4.0 | 9.7 | 9.2 | 5.0</t>
-  </si>
-  <si>
-    <t>-Tochi</t>
-  </si>
-  <si>
-    <t>DT4</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1734140" ; "Ichigaya Arisa (CV: Itou Ayasa) - Su-Suki Nanka Janai! [Hard]")</t>
-  </si>
-  <si>
-    <t>4.93*</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>2:34</t>
-  </si>
-  <si>
-    <t>4.0 | 9.4 | 8.5 | 5.0</t>
-  </si>
-  <si>
-    <t>Gaia</t>
-  </si>
-  <si>
-    <t>FM1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1068523" ; "BTS - FIRE [apple's Insane]")</t>
-  </si>
-  <si>
-    <t>4.79*</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>3:22</t>
-  </si>
-  <si>
-    <t>4.0 | 9.0 | 7.4 | 6.0</t>
-  </si>
-  <si>
-    <t>sukiNathan</t>
-  </si>
-  <si>
-    <t>FM2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1403276" ; "Yousei Teikoku - Hades: The rise [Insane]")</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>4:21</t>
-  </si>
-  <si>
-    <t>Delis</t>
-  </si>
-  <si>
-    <t>FM3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/955690" ; "USAO - Showdown [Atsuro's Insane]")</t>
-  </si>
-  <si>
-    <t>5.00*</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>1:59</t>
-  </si>
-  <si>
-    <t>Side</t>
-  </si>
-  <si>
-    <t>FM4</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1454214" ; "ONE OK ROCK - Memories [Lasse's Insane]")</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>3:15</t>
-  </si>
-  <si>
-    <t>Komore</t>
+    <t>2:15</t>
+  </si>
+  <si>
+    <t>Rue</t>
   </si>
   <si>
     <t>TB1</t>
   </si>
   <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1869428" ; "wavforme x Annabel - own phrases [Narcissu's Insane]")</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>5:16</t>
-  </si>
-  <si>
-    <t>4.0 | 9.2 | 8.0 | 6.0</t>
-  </si>
-  <si>
-    <t>Mordred</t>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1689789" ; "Roselia - Neo-Aspect [Kalibe's Expert]")</t>
+  </si>
+  <si>
+    <t>5.57*</t>
+  </si>
+  <si>
+    <t>5:40</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 8.5 | 6.0</t>
+  </si>
+  <si>
+    <t>Doormat</t>
   </si>
 </sst>
 </file>
@@ -1436,6 +1529,182 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1777,7 +2046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetFormatPr defaultRowHeight="35" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
@@ -1850,10 +2119,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="3">
-        <v>756508</v>
+        <v>391228</v>
       </c>
       <c r="K2" s="3">
-        <v>342242</v>
+        <v>160145</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1883,10 +2152,10 @@
         <v>24</v>
       </c>
       <c r="J3" s="3">
-        <v>484890</v>
+        <v>657054</v>
       </c>
       <c r="K3" s="3">
-        <v>199535</v>
+        <v>257793</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1916,10 +2185,10 @@
         <v>31</v>
       </c>
       <c r="J4" s="3">
-        <v>1853547</v>
+        <v>1694183</v>
       </c>
       <c r="K4" s="3">
-        <v>886627</v>
+        <v>766054</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1943,16 +2212,16 @@
         <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" s="3">
-        <v>105003</v>
+        <v>1046977</v>
       </c>
       <c r="K5" s="3">
-        <v>32046</v>
+        <v>488016</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1961,31 +2230,31 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6" s="3">
-        <v>99094</v>
+        <v>351993</v>
       </c>
       <c r="K6" s="3">
-        <v>28561</v>
+        <v>100049</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2003,22 +2272,22 @@
         <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="3">
-        <v>431939</v>
+        <v>1917397</v>
       </c>
       <c r="K7" s="3">
-        <v>179691</v>
+        <v>918188</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2027,31 +2296,31 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="3">
-        <v>116760</v>
+        <v>1233941</v>
       </c>
       <c r="K8" s="3">
-        <v>36097</v>
+        <v>575767</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2060,31 +2329,31 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J9" s="3">
-        <v>1393237</v>
+        <v>58701</v>
       </c>
       <c r="K9" s="3">
-        <v>647652</v>
+        <v>16371</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,31 +2362,31 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J10" s="3">
-        <v>808479</v>
+        <v>281069</v>
       </c>
       <c r="K10" s="3">
-        <v>351877</v>
+        <v>107232</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2126,31 +2395,31 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J11" s="3">
-        <v>1017374</v>
+        <v>733550</v>
       </c>
       <c r="K11" s="3">
-        <v>436177</v>
+        <v>331082</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2159,31 +2428,31 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J12" s="3">
-        <v>43167</v>
+        <v>788489</v>
       </c>
       <c r="K12" s="3">
-        <v>11260</v>
+        <v>308179</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2192,31 +2461,31 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J13" s="3">
-        <v>246276</v>
+        <v>1782851</v>
       </c>
       <c r="K13" s="3">
-        <v>60115</v>
+        <v>853045</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2225,31 +2494,31 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J14" s="3">
-        <v>730592</v>
+        <v>1740463</v>
       </c>
       <c r="K14" s="3">
-        <v>329538</v>
+        <v>825993</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2258,31 +2527,31 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>98</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J15" s="3">
-        <v>135609</v>
+        <v>715345</v>
       </c>
       <c r="K15" s="3">
-        <v>36529</v>
+        <v>275743</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2291,31 +2560,31 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J16" s="3">
-        <v>2058261</v>
+        <v>706003</v>
       </c>
       <c r="K16" s="3">
-        <v>903719</v>
+        <v>316861</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2324,31 +2593,31 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J17" s="3">
-        <v>1734140</v>
+        <v>142989</v>
       </c>
       <c r="K17" s="3">
-        <v>796450</v>
+        <v>45843</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2357,31 +2626,31 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J18" s="3">
-        <v>1068523</v>
+        <v>692711</v>
       </c>
       <c r="K18" s="3">
-        <v>479385</v>
+        <v>308447</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2390,31 +2659,31 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J19" s="3">
-        <v>1403276</v>
+        <v>1015224</v>
       </c>
       <c r="K19" s="3">
-        <v>662526</v>
+        <v>463701</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2423,31 +2692,31 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J20" s="3">
-        <v>955690</v>
+        <v>765880</v>
       </c>
       <c r="K20" s="3">
-        <v>438839</v>
+        <v>347023</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2456,31 +2725,31 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J21" s="3">
-        <v>1454214</v>
+        <v>587577</v>
       </c>
       <c r="K21" s="3">
-        <v>684590</v>
+        <v>230050</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2489,31 +2758,163 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J22" s="3">
-        <v>1869428</v>
+        <v>39205</v>
       </c>
       <c r="K22" s="3">
-        <v>894026</v>
+        <v>9848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="3">
+        <v>867282</v>
+      </c>
+      <c r="K23" s="3">
+        <v>390619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2069551</v>
+      </c>
+      <c r="K24" s="3">
+        <v>811948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="3">
+        <v>238938</v>
+      </c>
+      <c r="K25" s="3">
+        <v>66224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1689789</v>
+      </c>
+      <c r="K26" s="3">
+        <v>800589</v>
       </c>
     </row>
   </sheetData>

--- a/mapPool.xlsx
+++ b/mapPool.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>№</t>
   </si>
@@ -49,490 +49,403 @@
     <t>NM1</t>
   </si>
   <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/391228" ; "Sagara Kokoro - Hoshizora no Ima [Extra]")</t>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1701563" ; "XX:me - Escape [Freedom]")</t>
+  </si>
+  <si>
+    <t>6.34*</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>3:32</t>
+  </si>
+  <si>
+    <t>4.0 | 9.4 | 9.0 | 7.0</t>
+  </si>
+  <si>
+    <t>jonathanlfj</t>
+  </si>
+  <si>
+    <t>NM2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1188172" ; "xi - Glorious Crown [Atsuro's Extra]")</t>
+  </si>
+  <si>
+    <t>5.96*</t>
+  </si>
+  <si>
+    <t>225.5</t>
+  </si>
+  <si>
+    <t>1:58</t>
+  </si>
+  <si>
+    <t>3.5 | 9.3 | 8.5 | 6.0</t>
+  </si>
+  <si>
+    <t>Monstrata</t>
+  </si>
+  <si>
+    <t>NM3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1418503" ; "tofubeats - CANDYYYLAND feat LIZ - Pa's Lam System Remix [Nathan's Extra]")</t>
+  </si>
+  <si>
+    <t>5.62*</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>3:25</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 9.0 | 5.0</t>
+  </si>
+  <si>
+    <t>ProfessionalBox</t>
+  </si>
+  <si>
+    <t>NM4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/815857" ; "THE ORAL CIGARETTES - Kyouran Hey Kids!! [God of Speed]")</t>
+  </si>
+  <si>
+    <t>5.77*</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>4:60</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>monstrata</t>
+  </si>
+  <si>
+    <t>NM5</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1777497" ; "Aitsuki Nakuru - Presenter* [Lasse's Extra]")</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>3:30</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 8.4 | 6.0</t>
+  </si>
+  <si>
+    <t>toybot</t>
+  </si>
+  <si>
+    <t>NM6</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1481178" ; "Eleharmonica remixed by kors k - Der Wald (kors k Remix) [RLC's Extra]")</t>
+  </si>
+  <si>
+    <t>5.41*</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>1:59</t>
+  </si>
+  <si>
+    <t>5.0 | 9.4 | 9.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Cheesecake</t>
+  </si>
+  <si>
+    <t>HD1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1520445" ; "Feryquitous - Dstorv -Endorfin. Remix- [Cellina &amp; Down's Sincuvate Extra]")</t>
+  </si>
+  <si>
+    <t>5.94*</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>3:27</t>
+  </si>
+  <si>
+    <t>4.0 | 9.4 | 8.0 | 7.0</t>
+  </si>
+  <si>
+    <t>Cellina</t>
+  </si>
+  <si>
+    <t>HD2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/88633" ; "07th Expansion - Final Answer [Insane]")</t>
+  </si>
+  <si>
+    <t>4.78*</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>3:10</t>
+  </si>
+  <si>
+    <t>4.0 | 8.0 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>gowww</t>
+  </si>
+  <si>
+    <t>HD3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1724396" ; "Rigel Theatre - Rinn Ding Dong [moph's Big Dong Extra]")</t>
+  </si>
+  <si>
+    <t>5.63*</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>4:10</t>
+  </si>
+  <si>
+    <t>2.0 | 9.5 | 8.9 | 6.0</t>
+  </si>
+  <si>
+    <t>kwk</t>
+  </si>
+  <si>
+    <t>HR1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1737389" ; "ABSOLUTE CASTAWAY - Shinsou Shintouron [Extra]")</t>
+  </si>
+  <si>
+    <t>6.20*</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>5.2 | 10.0 | 10.0 | 7.0</t>
+  </si>
+  <si>
+    <t>Lasse</t>
+  </si>
+  <si>
+    <t>HR2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/32609" ; "Haru - Love Coloured Master Spark (Instrumental) [Lunatic]")</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>2:40</t>
+  </si>
+  <si>
+    <t>6.5 | 10.0 | 10.0 | 10.0</t>
+  </si>
+  <si>
+    <t>Shinxyn</t>
+  </si>
+  <si>
+    <t>HR3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1461560" ; "Memme - Marionette [Extra]")</t>
+  </si>
+  <si>
+    <t>5.69*</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>5.2 | 10.0 | 10.0 | 10.0</t>
+  </si>
+  <si>
+    <t>Gamu</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/1520653" ; "Kasumigaoka Utaha - Todokanai Koi [Kanawanai Koi]")</t>
+  </si>
+  <si>
+    <t>6.21*</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>3:16</t>
+  </si>
+  <si>
+    <t>5.0 | 10.0 | 10.4 | 6.0</t>
+  </si>
+  <si>
+    <t>Yugu</t>
+  </si>
+  <si>
+    <t>DT2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/693412" ; "zts - resurrectedreplayer [Intricate]")</t>
+  </si>
+  <si>
+    <t>5.87*</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>2:45</t>
+  </si>
+  <si>
+    <t>4.0 | 10.0 | 9.2 | 7.0</t>
+  </si>
+  <si>
+    <t>EvilElvis</t>
+  </si>
+  <si>
+    <t>DT3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/142099" ; "Yellow Zebra - Melody! [Lunatic]")</t>
+  </si>
+  <si>
+    <t>6.01*</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>2:31</t>
+  </si>
+  <si>
+    <t>4.0 | 9.7 | 9.2 | 7.0</t>
+  </si>
+  <si>
+    <t>wcx19911123</t>
+  </si>
+  <si>
+    <t>FM1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/499343" ; "void feat. Komatsuna - Akatsuki no Tsuki [Extra]")</t>
   </si>
   <si>
     <t>5.60*</t>
   </si>
   <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>3:56</t>
+  </si>
+  <si>
+    <t>4.0 | 9.3 | 8.0 | 7.0</t>
+  </si>
+  <si>
+    <t>Cherry Blossom</t>
+  </si>
+  <si>
+    <t>FM2</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/776594" ; "penoreri - Everlasting Message [Guy's INFINITE]")</t>
+  </si>
+  <si>
+    <t>5.67*</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>1:57</t>
+  </si>
+  <si>
+    <t>3.8 | 9.3 | 8.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Azer</t>
+  </si>
+  <si>
+    <t>FM3</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/203906" ; "MiddleIsland - Roze [Lan]")</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>3:90</t>
+  </si>
+  <si>
+    <t>4.0 | 9.0 | 6.0 | 6.0</t>
+  </si>
+  <si>
+    <t>Lan wings</t>
+  </si>
+  <si>
+    <t>FM4</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/53913" ; "onoken - Felys [Another]")</t>
+  </si>
+  <si>
+    <t>5.12*</t>
+  </si>
+  <si>
+    <t>2:20</t>
+  </si>
+  <si>
+    <t>5.0 | 8.0 | 8.0 | 5.0</t>
+  </si>
+  <si>
+    <t>tsukamaete</t>
+  </si>
+  <si>
+    <t>TB1</t>
+  </si>
+  <si>
+    <t>=HYPERLINK("https://osu.ppy.sh/b/910124" ; "Nekomata Master feat. Misawa Aki - chrono diver -fragment- [Fragments Of Time]")</t>
+  </si>
+  <si>
+    <t>5.75*</t>
+  </si>
+  <si>
     <t>185</t>
   </si>
   <si>
-    <t>3:50</t>
-  </si>
-  <si>
-    <t>4.0 | 9.0 | 8.0 | 7.0</t>
-  </si>
-  <si>
-    <t>Asphyxia</t>
-  </si>
-  <si>
-    <t>NM2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/657054" ; "Yuyoyuppe - AiAe [Expert]")</t>
-  </si>
-  <si>
-    <t>5.38*</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>3:35</t>
-  </si>
-  <si>
-    <t>4.0 | 9.3 | 8.0 | 6.0</t>
-  </si>
-  <si>
-    <t>Fort</t>
-  </si>
-  <si>
-    <t>NM3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1694183" ; "Gekidan Hitotose - Curtain Call!!!!! [NiNo's Insane]")</t>
-  </si>
-  <si>
-    <t>5.16*</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>3:36</t>
-  </si>
-  <si>
-    <t>4.0 | 9.0 | 8.0 | 6.0</t>
-  </si>
-  <si>
-    <t>Hey lululu</t>
-  </si>
-  <si>
-    <t>NM4</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1046977" ; "Camellia - kodama [Sonzi's Another]")</t>
-  </si>
-  <si>
-    <t>5.30*</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>3:47</t>
-  </si>
-  <si>
-    <t>ProfessionalBox</t>
-  </si>
-  <si>
-    <t>NM5</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/351993" ; "Himeringo - Yotsuya-san ni Yoroshiku [Insane]")</t>
-  </si>
-  <si>
-    <t>5.44*</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>2:52</t>
-  </si>
-  <si>
-    <t>RLC</t>
-  </si>
-  <si>
-    <t>NM6</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1917397" ; "Ziyoou-vachi - Kaen [Expert]")</t>
-  </si>
-  <si>
-    <t>5.40*</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>3:30</t>
-  </si>
-  <si>
-    <t>5.0 | 9.3 | 8.5 | 6.0</t>
-  </si>
-  <si>
-    <t>Seto Kousuke</t>
-  </si>
-  <si>
-    <t>HD1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1233941" ; "BTS - Not Today [Insane Collab]")</t>
-  </si>
-  <si>
-    <t>5.32*</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>3:48</t>
-  </si>
-  <si>
-    <t>4.0 | 9.3 | 8.0 | 7.0</t>
-  </si>
-  <si>
-    <t>DeRandom Otaku</t>
-  </si>
-  <si>
-    <t>HD2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/58701" ; "IOSYS - Midnight Lightning Bolt [Lunatic]")</t>
-  </si>
-  <si>
-    <t>4.93*</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>2:51</t>
-  </si>
-  <si>
-    <t>5.0 | 8.0 | 8.0 | 6.0</t>
-  </si>
-  <si>
-    <t>pieguy1372</t>
-  </si>
-  <si>
-    <t>HD3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/281069" ; "yuikonnu - Uchouten Vivace [Vivace!]")</t>
-  </si>
-  <si>
-    <t>5.02*</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>3:29</t>
-  </si>
-  <si>
-    <t>4.0 | 9.3 | 7.0 | 7.0</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>HD4</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/733550" ; "Saosin - Collapse [Extra]")</t>
-  </si>
-  <si>
-    <t>5.47*</t>
-  </si>
-  <si>
-    <t>182.925</t>
-  </si>
-  <si>
-    <t>2:19</t>
-  </si>
-  <si>
-    <t>5.0 | 9.2 | 8.7 | 7.0</t>
-  </si>
-  <si>
-    <t>pishifat</t>
-  </si>
-  <si>
-    <t>HR1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/788489" ; "Primary - Awake [Nyquill's Insane]")</t>
-  </si>
-  <si>
-    <t>5.49*</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>3:37</t>
-  </si>
-  <si>
-    <t>6.0 | 10.0 | 10.0 | 10.0</t>
-  </si>
-  <si>
-    <t>xChippy</t>
-  </si>
-  <si>
-    <t>HR2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1782851" ; "Kajiura Yuki - Pugna cum maga [Insane]")</t>
-  </si>
-  <si>
-    <t>5.09*</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>1:55</t>
-  </si>
-  <si>
-    <t>7.0 | 10.0 | 10.0 | 8.0</t>
-  </si>
-  <si>
-    <t>Trynna</t>
-  </si>
-  <si>
-    <t>HR3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1740463" ; "Ice vs. Morimori Atsushi - RE:UNION -Duo Blade Against- [Insane]")</t>
-  </si>
-  <si>
-    <t>5.19*</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>2:80</t>
-  </si>
-  <si>
-    <t>6.0 | 10.0 | 10.0 | 9.0</t>
-  </si>
-  <si>
-    <t>Princess Kisses</t>
-  </si>
-  <si>
-    <t>HR4</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/715345" ; "Memme - Starving Days [Another]")</t>
-  </si>
-  <si>
-    <t>2:26</t>
-  </si>
-  <si>
-    <t>Gamu</t>
-  </si>
-  <si>
-    <t>DT1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/706003" ; "Galileo Galilei - Aoi Shiori [Hanabi]")</t>
-  </si>
-  <si>
-    <t>5.52*</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>3:40</t>
-  </si>
-  <si>
-    <t>4.0 | 9.7 | 9.2 | 6.0</t>
-  </si>
-  <si>
-    <t>Umi</t>
-  </si>
-  <si>
-    <t>DT2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/142989" ; "Megpoid GUMI - Nisemono no Uta [Hard]")</t>
-  </si>
-  <si>
-    <t>5.18*</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>2:90</t>
-  </si>
-  <si>
-    <t>4.0 | 9.0 | 7.8 | 6.0</t>
-  </si>
-  <si>
-    <t>raririn</t>
-  </si>
-  <si>
-    <t>DT3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/692711" ; "sana - Yakimochi no Kotae [Hyper]")</t>
-  </si>
-  <si>
-    <t>5.20*</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>2:21</t>
-  </si>
-  <si>
-    <t>4.0 | 9.7 | 8.5 | 5.0</t>
-  </si>
-  <si>
-    <t>Cherry Blossom</t>
-  </si>
-  <si>
-    <t>DT4</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1015224" ; "Shoujo Fractal - Hatenaki Kaze no Kiseki sae [Hard]")</t>
-  </si>
-  <si>
-    <t>5.33*</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>2:42</t>
-  </si>
-  <si>
-    <t>4.0 | 9.7 | 8.8 | 5.0</t>
-  </si>
-  <si>
-    <t>-Mo-</t>
-  </si>
-  <si>
-    <t>DT5</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/765880" ; "Komine Lisa - Resuscitated Hope [Insane]")</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>3:12</t>
-  </si>
-  <si>
-    <t>4.0 | 9.9 | 9.2 | 7.0</t>
-  </si>
-  <si>
-    <t>Okorin</t>
-  </si>
-  <si>
-    <t>FM1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/587577" ; "Hanatan - If [wkyik's Insane]")</t>
-  </si>
-  <si>
-    <t>5.22*</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>4:43</t>
-  </si>
-  <si>
-    <t>4.0 | 9.0 | 7.0 | 7.0</t>
-  </si>
-  <si>
-    <t>Rakuen</t>
-  </si>
-  <si>
-    <t>FM2</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/39205" ; "Cle - Broken Moon Remix [hvick225's Ex Stage]")</t>
-  </si>
-  <si>
-    <t>2:23</t>
-  </si>
-  <si>
-    <t>4.0 | 8.0 | 8.0 | 6.0</t>
-  </si>
-  <si>
-    <t>Suck</t>
-  </si>
-  <si>
-    <t>FM3</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/867282" ; "Primary - Inai Sekai [Kibbleru's Hyper]")</t>
-  </si>
-  <si>
-    <t>5.06*</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>3:10</t>
-  </si>
-  <si>
-    <t>4.0 | 9.0 | 6.0 | 6.0</t>
-  </si>
-  <si>
-    <t>Shad0w1and</t>
-  </si>
-  <si>
-    <t>FM4</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/2069551" ; "USAO - Extra Mode [Firika's Another]")</t>
-  </si>
-  <si>
-    <t>2:40</t>
-  </si>
-  <si>
-    <t>4.0 | 9.2 | 8.2 | 6.0</t>
-  </si>
-  <si>
-    <t>Otosaka-Yu</t>
-  </si>
-  <si>
-    <t>FM5</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/238938" ; "Nekomata Master+ - squall [Insane]")</t>
-  </si>
-  <si>
-    <t>5.11*</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>2:15</t>
-  </si>
-  <si>
-    <t>Rue</t>
-  </si>
-  <si>
-    <t>TB1</t>
-  </si>
-  <si>
-    <t>=HYPERLINK("https://osu.ppy.sh/b/1689789" ; "Roselia - Neo-Aspect [Kalibe's Expert]")</t>
-  </si>
-  <si>
-    <t>5.57*</t>
-  </si>
-  <si>
-    <t>5:40</t>
-  </si>
-  <si>
-    <t>4.0 | 9.3 | 8.5 | 6.0</t>
-  </si>
-  <si>
-    <t>Doormat</t>
+    <t>5:46</t>
+  </si>
+  <si>
+    <t>HB24</t>
   </si>
 </sst>
 </file>
@@ -1485,226 +1398,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2046,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K21"/>
   <sheetFormatPr defaultRowHeight="35" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
@@ -2119,10 +1812,10 @@
         <v>17</v>
       </c>
       <c r="J2" s="3">
-        <v>391228</v>
+        <v>1701563</v>
       </c>
       <c r="K2" s="3">
-        <v>160145</v>
+        <v>811119</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2152,10 +1845,10 @@
         <v>24</v>
       </c>
       <c r="J3" s="3">
-        <v>657054</v>
+        <v>1188172</v>
       </c>
       <c r="K3" s="3">
-        <v>257793</v>
+        <v>558694</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2185,10 +1878,10 @@
         <v>31</v>
       </c>
       <c r="J4" s="3">
-        <v>1694183</v>
+        <v>1418503</v>
       </c>
       <c r="K4" s="3">
-        <v>766054</v>
+        <v>663519</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2212,16 +1905,16 @@
         <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3">
-        <v>1046977</v>
+        <v>815857</v>
       </c>
       <c r="K5" s="3">
-        <v>488016</v>
+        <v>372510</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2230,13 +1923,13 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>41</v>
@@ -2245,16 +1938,16 @@
         <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" s="3">
-        <v>351993</v>
+        <v>1777497</v>
       </c>
       <c r="K6" s="3">
-        <v>100049</v>
+        <v>799156</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2263,31 +1956,31 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3">
-        <v>1917397</v>
+        <v>1481178</v>
       </c>
       <c r="K7" s="3">
-        <v>918188</v>
+        <v>581787</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2296,31 +1989,31 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3">
-        <v>1233941</v>
+        <v>1520445</v>
       </c>
       <c r="K8" s="3">
-        <v>575767</v>
+        <v>708045</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2329,31 +2022,31 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J9" s="3">
-        <v>58701</v>
+        <v>88633</v>
       </c>
       <c r="K9" s="3">
-        <v>16371</v>
+        <v>26226</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2362,31 +2055,31 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" s="3">
-        <v>281069</v>
+        <v>1724396</v>
       </c>
       <c r="K10" s="3">
-        <v>107232</v>
+        <v>804648</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2395,19 +2088,19 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>77</v>
@@ -2416,10 +2109,10 @@
         <v>78</v>
       </c>
       <c r="J11" s="3">
-        <v>733550</v>
+        <v>1737389</v>
       </c>
       <c r="K11" s="3">
-        <v>331082</v>
+        <v>827743</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2434,25 +2127,25 @@
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="J12" s="3">
-        <v>788489</v>
+        <v>32609</v>
       </c>
       <c r="K12" s="3">
-        <v>308179</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2461,31 +2154,31 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="J13" s="3">
-        <v>1782851</v>
+        <v>1461560</v>
       </c>
       <c r="K13" s="3">
-        <v>853045</v>
+        <v>690608</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2494,31 +2187,31 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="J14" s="3">
-        <v>1740463</v>
+        <v>1520653</v>
       </c>
       <c r="K14" s="3">
-        <v>825993</v>
+        <v>720247</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2527,31 +2220,31 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J15" s="3">
-        <v>715345</v>
+        <v>693412</v>
       </c>
       <c r="K15" s="3">
-        <v>275743</v>
+        <v>304672</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2560,31 +2253,31 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J16" s="3">
-        <v>706003</v>
+        <v>142099</v>
       </c>
       <c r="K16" s="3">
-        <v>316861</v>
+        <v>45450</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2593,31 +2286,31 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J17" s="3">
-        <v>142989</v>
+        <v>499343</v>
       </c>
       <c r="K17" s="3">
-        <v>45843</v>
+        <v>212387</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2626,31 +2319,31 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J18" s="3">
-        <v>692711</v>
+        <v>776594</v>
       </c>
       <c r="K18" s="3">
-        <v>308447</v>
+        <v>302447</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2659,31 +2352,31 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J19" s="3">
-        <v>1015224</v>
+        <v>203906</v>
       </c>
       <c r="K19" s="3">
-        <v>463701</v>
+        <v>65994</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2692,31 +2385,31 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J20" s="3">
-        <v>765880</v>
+        <v>53913</v>
       </c>
       <c r="K20" s="3">
-        <v>347023</v>
+        <v>14769</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2725,196 +2418,31 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>144</v>
       </c>
       <c r="J21" s="3">
-        <v>587577</v>
+        <v>910124</v>
       </c>
       <c r="K21" s="3">
-        <v>230050</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J22" s="3">
-        <v>39205</v>
-      </c>
-      <c r="K22" s="3">
-        <v>9848</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J23" s="3">
-        <v>867282</v>
-      </c>
-      <c r="K23" s="3">
-        <v>390619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2069551</v>
-      </c>
-      <c r="K24" s="3">
-        <v>811948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="3">
-        <v>238938</v>
-      </c>
-      <c r="K25" s="3">
-        <v>66224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1689789</v>
-      </c>
-      <c r="K26" s="3">
-        <v>800589</v>
+        <v>420754</v>
       </c>
     </row>
   </sheetData>
